--- a/bioinfo-m2/Results/Total_Eukaryota.xlsx
+++ b/bioinfo-m2/Results/Total_Eukaryota.xlsx
@@ -36,7 +36,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -10504,31 +10504,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="70">
-        <v>14669.0</v>
+        <v>14679.0</v>
       </c>
       <c r="C2" t="n" s="71">
-        <v>3.3671293437667136</v>
+        <v>3.3628865979381444</v>
       </c>
       <c r="D2" t="n" s="70">
-        <v>12629.0</v>
+        <v>12639.0</v>
       </c>
       <c r="E2" t="n" s="71">
-        <v>2.8988667586358865</v>
+        <v>2.8955326460481103</v>
       </c>
       <c r="F2" t="n" s="70">
-        <v>15540.0</v>
+        <v>15556.0</v>
       </c>
       <c r="G2" t="n" s="71">
-        <v>3.5670591043789437</v>
+        <v>3.5638029782359677</v>
       </c>
       <c r="H2" t="n" s="70">
-        <v>644.0</v>
+        <v>645.0</v>
       </c>
       <c r="I2" t="n" s="70">
-        <v>492.0</v>
+        <v>494.0</v>
       </c>
       <c r="J2" t="n" s="70">
-        <v>960.0</v>
+        <v>964.0</v>
       </c>
       <c r="M2" t="s" s="67">
         <v>0</v>
@@ -10542,31 +10542,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="72">
-        <v>8146.0</v>
+        <v>8161.0</v>
       </c>
       <c r="C3" t="n" s="73">
-        <v>1.8698367737626047</v>
+        <v>1.8696449026345934</v>
       </c>
       <c r="D3" t="n" s="72">
-        <v>6054.0</v>
+        <v>6067.0</v>
       </c>
       <c r="E3" t="n" s="73">
-        <v>1.3896380835206001</v>
+        <v>1.3899198167239404</v>
       </c>
       <c r="F3" t="n" s="72">
-        <v>11209.0</v>
+        <v>11229.0</v>
       </c>
       <c r="G3" t="n" s="73">
-        <v>2.572919272907566</v>
+        <v>2.572508591065292</v>
       </c>
       <c r="H3" t="n" s="74">
-        <v>531.0</v>
+        <v>533.0</v>
       </c>
       <c r="I3" t="n" s="74">
-        <v>400.0</v>
+        <v>401.0</v>
       </c>
       <c r="J3" t="n" s="74">
-        <v>1085.0</v>
+        <v>1088.0</v>
       </c>
     </row>
     <row r="4">
@@ -10574,37 +10574,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="70">
-        <v>3915.0</v>
+        <v>3917.0</v>
       </c>
       <c r="C4" t="n" s="71">
-        <v>0.898650990581954</v>
+        <v>0.8973654066437572</v>
       </c>
       <c r="D4" t="n" s="70">
-        <v>8441.0</v>
+        <v>8451.0</v>
       </c>
       <c r="E4" t="n" s="71">
-        <v>1.9375512162202488</v>
+        <v>1.9360824742268041</v>
       </c>
       <c r="F4" t="n" s="70">
-        <v>5913.0</v>
+        <v>5918.0</v>
       </c>
       <c r="G4" t="n" s="71">
-        <v>1.3572728754306753</v>
+        <v>1.3557846506300115</v>
       </c>
       <c r="H4" t="n" s="70">
-        <v>345.0</v>
+        <v>346.0</v>
       </c>
       <c r="I4" t="n" s="70">
-        <v>1131.0</v>
+        <v>1133.0</v>
       </c>
       <c r="J4" t="n" s="70">
-        <v>568.0</v>
+        <v>570.0</v>
       </c>
       <c r="M4" t="s" s="67">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="65">
-        <v>1089542.0</v>
+        <v>1091661.0</v>
       </c>
     </row>
     <row r="5">
@@ -10612,31 +10612,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="72">
-        <v>11824.0</v>
+        <v>11829.0</v>
       </c>
       <c r="C5" t="n" s="73">
-        <v>2.7140866698955364</v>
+        <v>2.7099656357388318</v>
       </c>
       <c r="D5" t="n" s="72">
-        <v>7765.0</v>
+        <v>7768.0</v>
       </c>
       <c r="E5" t="n" s="73">
-        <v>1.7823818497749353</v>
+        <v>1.7796105383734249</v>
       </c>
       <c r="F5" t="n" s="72">
-        <v>21040.0</v>
+        <v>21067.0</v>
       </c>
       <c r="G5" t="n" s="73">
-        <v>4.829531760368917</v>
+        <v>4.826345933562429</v>
       </c>
       <c r="H5" t="n" s="74">
-        <v>401.0</v>
+        <v>402.0</v>
       </c>
       <c r="I5" t="n" s="74">
         <v>246.0</v>
       </c>
       <c r="J5" t="n" s="74">
-        <v>1225.0</v>
+        <v>1229.0</v>
       </c>
     </row>
     <row r="6">
@@ -10644,37 +10644,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="70">
-        <v>11515.0</v>
+        <v>11535.0</v>
       </c>
       <c r="C6" t="n" s="71">
-        <v>2.6431586606771904</v>
+        <v>2.642611683848797</v>
       </c>
       <c r="D6" t="n" s="70">
-        <v>6570.0</v>
+        <v>6589.0</v>
       </c>
       <c r="E6" t="n" s="71">
-        <v>1.5080809727007503</v>
+        <v>1.5095074455899198</v>
       </c>
       <c r="F6" t="n" s="70">
-        <v>6932.0</v>
+        <v>6943.0</v>
       </c>
       <c r="G6" t="n" s="71">
-        <v>1.5911746275131815</v>
+        <v>1.590607101947308</v>
       </c>
       <c r="H6" t="n" s="70">
-        <v>1159.0</v>
+        <v>1162.0</v>
       </c>
       <c r="I6" t="n" s="70">
-        <v>384.0</v>
+        <v>385.0</v>
       </c>
       <c r="J6" t="n" s="70">
-        <v>530.0</v>
+        <v>531.0</v>
       </c>
       <c r="M6" t="s" s="67">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="65">
-        <v>8146.0</v>
+        <v>8161.0</v>
       </c>
     </row>
     <row r="7">
@@ -10682,31 +10682,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="72">
-        <v>7877.0</v>
+        <v>7898.0</v>
       </c>
       <c r="C7" t="n" s="73">
-        <v>1.8080903838605495</v>
+        <v>1.8093928980526919</v>
       </c>
       <c r="D7" t="n" s="72">
-        <v>6672.0</v>
+        <v>6691.0</v>
       </c>
       <c r="E7" t="n" s="73">
-        <v>1.5314941019572916</v>
+        <v>1.5328751431844214</v>
       </c>
       <c r="F7" t="n" s="72">
-        <v>6238.0</v>
+        <v>6249.0</v>
       </c>
       <c r="G7" t="n" s="73">
-        <v>1.4318735323755374</v>
+        <v>1.431615120274914</v>
       </c>
       <c r="H7" t="n" s="74">
-        <v>762.0</v>
+        <v>764.0</v>
       </c>
       <c r="I7" t="n" s="74">
-        <v>594.0</v>
+        <v>595.0</v>
       </c>
       <c r="J7" t="n" s="74">
-        <v>768.0</v>
+        <v>769.0</v>
       </c>
     </row>
     <row r="8">
@@ -10714,31 +10714,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="70">
-        <v>1741.0</v>
+        <v>1744.0</v>
       </c>
       <c r="C8" t="n" s="71">
-        <v>0.3996299807415535</v>
+        <v>0.3995418098510882</v>
       </c>
       <c r="D8" t="n" s="70">
-        <v>3738.0</v>
+        <v>3743.0</v>
       </c>
       <c r="E8" t="n" s="71">
-        <v>0.8580223251073675</v>
+        <v>0.8575028636884308</v>
       </c>
       <c r="F8" t="n" s="70">
-        <v>2696.0</v>
+        <v>2699.0</v>
       </c>
       <c r="G8" t="n" s="71">
-        <v>0.6188411419179943</v>
+        <v>0.618327605956472</v>
       </c>
       <c r="H8" t="n" s="70">
-        <v>598.0</v>
+        <v>601.0</v>
       </c>
       <c r="I8" t="n" s="70">
-        <v>1086.0</v>
+        <v>1089.0</v>
       </c>
       <c r="J8" t="n" s="70">
-        <v>798.0</v>
+        <v>799.0</v>
       </c>
       <c r="M8" t="s" s="67">
         <v>4</v>
@@ -10752,31 +10752,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="72">
-        <v>7767.0</v>
+        <v>7782.0</v>
       </c>
       <c r="C9" t="n" s="73">
-        <v>1.7828409307407502</v>
+        <v>1.7828178694158074</v>
       </c>
       <c r="D9" t="n" s="72">
-        <v>5545.0</v>
+        <v>5563.0</v>
       </c>
       <c r="E9" t="n" s="73">
-        <v>1.2728019777208006</v>
+        <v>1.2744558991981672</v>
       </c>
       <c r="F9" t="n" s="72">
-        <v>10627.0</v>
+        <v>10646.0</v>
       </c>
       <c r="G9" t="n" s="73">
-        <v>2.439326711855536</v>
+        <v>2.438946162657503</v>
       </c>
       <c r="H9" t="n" s="74">
-        <v>740.0</v>
+        <v>741.0</v>
       </c>
       <c r="I9" t="n" s="74">
-        <v>311.0</v>
+        <v>313.0</v>
       </c>
       <c r="J9" t="n" s="74">
-        <v>977.0</v>
+        <v>979.0</v>
       </c>
     </row>
     <row r="10">
@@ -10787,19 +10787,19 @@
         <v>4761.0</v>
       </c>
       <c r="C10" t="n" s="71">
-        <v>1.0928422391215027</v>
+        <v>1.090721649484536</v>
       </c>
       <c r="D10" t="n" s="70">
-        <v>3052.0</v>
+        <v>3053.0</v>
       </c>
       <c r="E10" t="n" s="71">
-        <v>0.7005575538329817</v>
+        <v>0.6994272623138602</v>
       </c>
       <c r="F10" t="n" s="70">
-        <v>10402.0</v>
+        <v>10423.0</v>
       </c>
       <c r="G10" t="n" s="71">
-        <v>2.3876801032014012</v>
+        <v>2.3878579610538373</v>
       </c>
       <c r="H10" t="n" s="70">
         <v>465.0</v>
@@ -10808,7 +10808,7 @@
         <v>241.0</v>
       </c>
       <c r="J10" t="n" s="70">
-        <v>1297.0</v>
+        <v>1301.0</v>
       </c>
       <c r="M10" t="s" s="67">
         <v>5</v>
@@ -10822,31 +10822,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="72">
-        <v>3848.0</v>
+        <v>3854.0</v>
       </c>
       <c r="C11" t="n" s="73">
-        <v>0.883271778227167</v>
+        <v>0.8829324169530355</v>
       </c>
       <c r="D11" t="n" s="72">
-        <v>1877.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E11" t="n" s="73">
-        <v>0.43084748641694187</v>
+        <v>0.43046964490263456</v>
       </c>
       <c r="F11" t="n" s="72">
-        <v>11237.0</v>
+        <v>11267.0</v>
       </c>
       <c r="G11" t="n" s="73">
-        <v>2.5793464064289697</v>
+        <v>2.581214203894616</v>
       </c>
       <c r="H11" t="n" s="74">
-        <v>365.0</v>
+        <v>366.0</v>
       </c>
       <c r="I11" t="n" s="74">
-        <v>286.0</v>
+        <v>287.0</v>
       </c>
       <c r="J11" t="n" s="74">
-        <v>1395.0</v>
+        <v>1399.0</v>
       </c>
     </row>
     <row r="12">
@@ -10857,28 +10857,28 @@
         <v>1512.0</v>
       </c>
       <c r="C12" t="n" s="71">
-        <v>0.3470652101557891</v>
+        <v>0.3463917525773196</v>
       </c>
       <c r="D12" t="n" s="70">
-        <v>2421.0</v>
+        <v>2423.0</v>
       </c>
       <c r="E12" t="n" s="71">
-        <v>0.5557175091184956</v>
+        <v>0.5550973654066437</v>
       </c>
       <c r="F12" t="n" s="70">
-        <v>10335.0</v>
+        <v>10361.0</v>
       </c>
       <c r="G12" t="n" s="71">
-        <v>2.3723008908466143</v>
+        <v>2.3736540664375716</v>
       </c>
       <c r="H12" t="n" s="70">
-        <v>325.0</v>
+        <v>326.0</v>
       </c>
       <c r="I12" t="n" s="70">
-        <v>359.0</v>
+        <v>360.0</v>
       </c>
       <c r="J12" t="n" s="70">
-        <v>1455.0</v>
+        <v>1459.0</v>
       </c>
       <c r="M12" t="s" s="67">
         <v>7</v>
@@ -10892,31 +10892,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="72">
-        <v>4839.0</v>
+        <v>4841.0</v>
       </c>
       <c r="C13" t="n" s="73">
-        <v>1.1107463967882696</v>
+        <v>1.109049255441008</v>
       </c>
       <c r="D13" t="n" s="72">
-        <v>1950.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E13" t="n" s="73">
-        <v>0.4476039416691725</v>
+        <v>0.44788087056128295</v>
       </c>
       <c r="F13" t="n" s="72">
-        <v>8784.0</v>
+        <v>8812.0</v>
       </c>
       <c r="G13" t="n" s="73">
-        <v>2.0162836018574417</v>
+        <v>2.0187857961053837</v>
       </c>
       <c r="H13" t="n" s="74">
-        <v>533.0</v>
+        <v>534.0</v>
       </c>
       <c r="I13" t="n" s="74">
-        <v>246.0</v>
+        <v>247.0</v>
       </c>
       <c r="J13" t="n" s="74">
-        <v>1285.0</v>
+        <v>1289.0</v>
       </c>
     </row>
     <row r="14">
@@ -10924,31 +10924,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="70">
-        <v>17428.0</v>
+        <v>17442.0</v>
       </c>
       <c r="C14" t="n" s="71">
-        <v>4.0004315361078655</v>
+        <v>3.9958762886597934</v>
       </c>
       <c r="D14" t="n" s="70">
-        <v>11580.0</v>
+        <v>11586.0</v>
       </c>
       <c r="E14" t="n" s="71">
-        <v>2.658078792066163</v>
+        <v>2.654295532646048</v>
       </c>
       <c r="F14" t="n" s="70">
-        <v>5431.0</v>
+        <v>5436.0</v>
       </c>
       <c r="G14" t="n" s="71">
-        <v>1.2466343626693723</v>
+        <v>1.245360824742268</v>
       </c>
       <c r="H14" t="n" s="70">
-        <v>1199.0</v>
+        <v>1202.0</v>
       </c>
       <c r="I14" t="n" s="70">
-        <v>537.0</v>
+        <v>538.0</v>
       </c>
       <c r="J14" t="n" s="70">
-        <v>162.0</v>
+        <v>164.0</v>
       </c>
     </row>
     <row r="15">
@@ -10956,31 +10956,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="72">
-        <v>11697.0</v>
+        <v>11712.0</v>
       </c>
       <c r="C15" t="n" s="73">
-        <v>2.684935028566313</v>
+        <v>2.6831615120274916</v>
       </c>
       <c r="D15" t="n" s="72">
-        <v>6174.0</v>
+        <v>6184.0</v>
       </c>
       <c r="E15" t="n" s="73">
-        <v>1.4171829414694723</v>
+        <v>1.4167239404352807</v>
       </c>
       <c r="F15" t="n" s="72">
-        <v>7959.0</v>
+        <v>7969.0</v>
       </c>
       <c r="G15" t="n" s="73">
-        <v>1.8269127034589456</v>
+        <v>1.8256586483390607</v>
       </c>
       <c r="H15" t="n" s="74">
-        <v>904.0</v>
+        <v>906.0</v>
       </c>
       <c r="I15" t="n" s="74">
-        <v>481.0</v>
+        <v>483.0</v>
       </c>
       <c r="J15" t="n" s="74">
-        <v>587.0</v>
+        <v>589.0</v>
       </c>
     </row>
     <row r="16">
@@ -10988,31 +10988,31 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="70">
-        <v>7668.0</v>
+        <v>7692.0</v>
       </c>
       <c r="C16" t="n" s="71">
-        <v>1.7601164229329305</v>
+        <v>1.7621993127147766</v>
       </c>
       <c r="D16" t="n" s="70">
-        <v>7453.0</v>
+        <v>7466.0</v>
       </c>
       <c r="E16" t="n" s="71">
-        <v>1.7107652191078677</v>
+        <v>1.7104238258877433</v>
       </c>
       <c r="F16" t="n" s="70">
-        <v>5024.0</v>
+        <v>5032.0</v>
       </c>
       <c r="G16" t="n" s="71">
-        <v>1.153211386126114</v>
+        <v>1.1528064146620849</v>
       </c>
       <c r="H16" t="n" s="70">
-        <v>790.0</v>
+        <v>793.0</v>
       </c>
       <c r="I16" t="n" s="70">
         <v>645.0</v>
       </c>
       <c r="J16" t="n" s="70">
-        <v>600.0</v>
+        <v>601.0</v>
       </c>
     </row>
     <row r="17">
@@ -11020,31 +11020,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="72">
-        <v>20338.0</v>
+        <v>20371.0</v>
       </c>
       <c r="C17" t="n" s="73">
-        <v>4.668394341368015</v>
+        <v>4.666895761741122</v>
       </c>
       <c r="D17" t="n" s="72">
-        <v>9030.0</v>
+        <v>9035.0</v>
       </c>
       <c r="E17" t="n" s="73">
-        <v>2.0727505606526293</v>
+        <v>2.0698739977090495</v>
       </c>
       <c r="F17" t="n" s="72">
-        <v>19476.0</v>
+        <v>19497.0</v>
       </c>
       <c r="G17" t="n" s="73">
-        <v>4.47053044510195</v>
+        <v>4.466666666666667</v>
       </c>
       <c r="H17" t="n" s="74">
-        <v>950.0</v>
+        <v>953.0</v>
       </c>
       <c r="I17" t="n" s="74">
         <v>203.0</v>
       </c>
       <c r="J17" t="n" s="74">
-        <v>769.0</v>
+        <v>770.0</v>
       </c>
     </row>
     <row r="18">
@@ -11052,31 +11052,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="70">
-        <v>9897.0</v>
+        <v>9909.0</v>
       </c>
       <c r="C18" t="n" s="71">
-        <v>2.271762159333231</v>
+        <v>2.270103092783505</v>
       </c>
       <c r="D18" t="n" s="70">
-        <v>12211.0</v>
+        <v>12224.0</v>
       </c>
       <c r="E18" t="n" s="71">
-        <v>2.802918836780649</v>
+        <v>2.8004581901489116</v>
       </c>
       <c r="F18" t="n" s="70">
-        <v>6756.0</v>
+        <v>6763.0</v>
       </c>
       <c r="G18" t="n" s="71">
-        <v>1.5507755025215022</v>
+        <v>1.5493699885452463</v>
       </c>
       <c r="H18" t="n" s="70">
-        <v>689.0</v>
+        <v>691.0</v>
       </c>
       <c r="I18" t="n" s="70">
-        <v>1011.0</v>
+        <v>1014.0</v>
       </c>
       <c r="J18" t="n" s="70">
-        <v>340.0</v>
+        <v>341.0</v>
       </c>
     </row>
     <row r="19">
@@ -11084,31 +11084,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="72">
-        <v>4918.0</v>
+        <v>4936.0</v>
       </c>
       <c r="C19" t="n" s="73">
-        <v>1.1288800949379438</v>
+        <v>1.1308132875143184</v>
       </c>
       <c r="D19" t="n" s="72">
-        <v>6354.0</v>
+        <v>6364.0</v>
       </c>
       <c r="E19" t="n" s="73">
-        <v>1.4585002283927804</v>
+        <v>1.4579610538373426</v>
       </c>
       <c r="F19" t="n" s="72">
-        <v>7131.0</v>
+        <v>7156.0</v>
       </c>
       <c r="G19" t="n" s="73">
-        <v>1.636853183611728</v>
+        <v>1.6394043528064146</v>
       </c>
       <c r="H19" t="n" s="74">
-        <v>527.0</v>
+        <v>528.0</v>
       </c>
       <c r="I19" t="n" s="74">
-        <v>894.0</v>
+        <v>895.0</v>
       </c>
       <c r="J19" t="n" s="74">
-        <v>807.0</v>
+        <v>811.0</v>
       </c>
     </row>
     <row r="20">
@@ -11116,28 +11116,28 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="70">
-        <v>2013.0</v>
+        <v>2014.0</v>
       </c>
       <c r="C20" t="n" s="71">
-        <v>0.4620649920923304</v>
+        <v>0.461397479954181</v>
       </c>
       <c r="D20" t="n" s="70">
-        <v>9455.0</v>
+        <v>9490.0</v>
       </c>
       <c r="E20" t="n" s="71">
-        <v>2.1703052658882185</v>
+        <v>2.174112256586483</v>
       </c>
       <c r="F20" t="n" s="70">
-        <v>2392.0</v>
+        <v>2393.0</v>
       </c>
       <c r="G20" t="n" s="71">
-        <v>0.5490608351141849</v>
+        <v>0.5482245131729668</v>
       </c>
       <c r="H20" t="n" s="70">
         <v>324.0</v>
       </c>
       <c r="I20" t="n" s="70">
-        <v>1427.0</v>
+        <v>1431.0</v>
       </c>
       <c r="J20" t="n" s="70">
         <v>337.0</v>
@@ -11148,31 +11148,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="72">
-        <v>5697.0</v>
+        <v>5708.0</v>
       </c>
       <c r="C21" t="n" s="73">
-        <v>1.3076921311227054</v>
+        <v>1.3076746849942726</v>
       </c>
       <c r="D21" t="n" s="72">
-        <v>8889.0</v>
+        <v>8902.0</v>
       </c>
       <c r="E21" t="n" s="73">
-        <v>2.040385352562705</v>
+        <v>2.0394043528064145</v>
       </c>
       <c r="F21" t="n" s="72">
-        <v>10563.0</v>
+        <v>10580.0</v>
       </c>
       <c r="G21" t="n" s="73">
-        <v>2.4246361209494713</v>
+        <v>2.4238258877434133</v>
       </c>
       <c r="H21" t="n" s="74">
-        <v>469.0</v>
+        <v>470.0</v>
       </c>
       <c r="I21" t="n" s="74">
-        <v>732.0</v>
+        <v>734.0</v>
       </c>
       <c r="J21" t="n" s="74">
-        <v>819.0</v>
+        <v>821.0</v>
       </c>
     </row>
     <row r="22">
@@ -11180,31 +11180,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="70">
-        <v>7464.0</v>
+        <v>7475.0</v>
       </c>
       <c r="C22" t="n" s="71">
-        <v>1.7132901644198477</v>
+        <v>1.7124856815578466</v>
       </c>
       <c r="D22" t="n" s="70">
-        <v>7608.0</v>
+        <v>7623.0</v>
       </c>
       <c r="E22" t="n" s="71">
-        <v>1.7463439939584946</v>
+        <v>1.7463917525773194</v>
       </c>
       <c r="F22" t="n" s="70">
-        <v>6095.0</v>
+        <v>6112.0</v>
       </c>
       <c r="G22" t="n" s="71">
-        <v>1.399049243319798</v>
+        <v>1.4002290950744558</v>
       </c>
       <c r="H22" t="n" s="70">
-        <v>869.0</v>
+        <v>871.0</v>
       </c>
       <c r="I22" t="n" s="70">
-        <v>736.0</v>
+        <v>738.0</v>
       </c>
       <c r="J22" t="n" s="70">
-        <v>516.0</v>
+        <v>518.0</v>
       </c>
     </row>
     <row r="23">
@@ -11212,31 +11212,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="72">
-        <v>4870.0</v>
+        <v>4885.0</v>
       </c>
       <c r="C23" t="n" s="73">
-        <v>1.1178621517583949</v>
+        <v>1.1191294387170676</v>
       </c>
       <c r="D23" t="n" s="72">
-        <v>7869.0</v>
+        <v>7896.0</v>
       </c>
       <c r="E23" t="n" s="73">
-        <v>1.8062540599972914</v>
+        <v>1.8089347079037799</v>
       </c>
       <c r="F23" t="n" s="72">
-        <v>6374.0</v>
+        <v>6394.0</v>
       </c>
       <c r="G23" t="n" s="73">
-        <v>1.4630910380509259</v>
+        <v>1.4648339060710196</v>
       </c>
       <c r="H23" t="n" s="74">
-        <v>594.0</v>
+        <v>595.0</v>
       </c>
       <c r="I23" t="n" s="74">
-        <v>1016.0</v>
+        <v>1020.0</v>
       </c>
       <c r="J23" t="n" s="74">
-        <v>821.0</v>
+        <v>823.0</v>
       </c>
     </row>
     <row r="24">
@@ -11244,31 +11244,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="70">
-        <v>1729.0</v>
+        <v>1732.0</v>
       </c>
       <c r="C24" t="n" s="71">
-        <v>0.3968754949466663</v>
+        <v>0.3967926689576174</v>
       </c>
       <c r="D24" t="n" s="70">
-        <v>4038.0</v>
+        <v>4049.0</v>
       </c>
       <c r="E24" t="n" s="71">
-        <v>0.926884469979548</v>
+        <v>0.9276059564719358</v>
       </c>
       <c r="F24" t="n" s="70">
-        <v>2524.0</v>
+        <v>2528.0</v>
       </c>
       <c r="G24" t="n" s="71">
-        <v>0.5793601788579443</v>
+        <v>0.5791523482245131</v>
       </c>
       <c r="H24" t="n" s="70">
-        <v>673.0</v>
+        <v>675.0</v>
       </c>
       <c r="I24" t="n" s="70">
-        <v>1175.0</v>
+        <v>1177.0</v>
       </c>
       <c r="J24" t="n" s="70">
-        <v>764.0</v>
+        <v>765.0</v>
       </c>
     </row>
     <row r="25">
@@ -11276,31 +11276,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="72">
-        <v>6598.0</v>
+        <v>6614.0</v>
       </c>
       <c r="C25" t="n" s="73">
-        <v>1.514508106222154</v>
+        <v>1.5152348224513172</v>
       </c>
       <c r="D25" t="n" s="72">
-        <v>6651.0</v>
+        <v>6673.0</v>
       </c>
       <c r="E25" t="n" s="73">
-        <v>1.526673751816239</v>
+        <v>1.5287514318442152</v>
       </c>
       <c r="F25" t="n" s="72">
-        <v>13063.0</v>
+        <v>13098.0</v>
       </c>
       <c r="G25" t="n" s="73">
-        <v>2.998487328217641</v>
+        <v>3.0006872852233677</v>
       </c>
       <c r="H25" t="n" s="74">
-        <v>822.0</v>
+        <v>823.0</v>
       </c>
       <c r="I25" t="n" s="74">
-        <v>362.0</v>
+        <v>364.0</v>
       </c>
       <c r="J25" t="n" s="74">
-        <v>827.0</v>
+        <v>829.0</v>
       </c>
     </row>
     <row r="26">
@@ -11308,31 +11308,31 @@
         <v>42</v>
       </c>
       <c r="B26" t="n" s="70">
-        <v>4243.0</v>
+        <v>4249.0</v>
       </c>
       <c r="C26" t="n" s="71">
-        <v>0.9739402689755379</v>
+        <v>0.9734249713631157</v>
       </c>
       <c r="D26" t="n" s="70">
-        <v>2238.0</v>
+        <v>2241.0</v>
       </c>
       <c r="E26" t="n" s="71">
-        <v>0.5137116007464656</v>
+        <v>0.51340206185567</v>
       </c>
       <c r="F26" t="n" s="70">
-        <v>3585.0</v>
+        <v>3590.0</v>
       </c>
       <c r="G26" t="n" s="71">
-        <v>0.8229026312225555</v>
+        <v>0.8224513172966781</v>
       </c>
       <c r="H26" t="n" s="70">
-        <v>1015.0</v>
+        <v>1019.0</v>
       </c>
       <c r="I26" t="n" s="70">
-        <v>514.0</v>
+        <v>515.0</v>
       </c>
       <c r="J26" t="n" s="70">
-        <v>832.0</v>
+        <v>835.0</v>
       </c>
     </row>
     <row r="27">
@@ -11340,31 +11340,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="72">
-        <v>1751.0</v>
+        <v>1753.0</v>
       </c>
       <c r="C27" t="n" s="73">
-        <v>0.4019253855706261</v>
+        <v>0.4016036655211913</v>
       </c>
       <c r="D27" t="n" s="72">
-        <v>1295.0</v>
+        <v>1299.0</v>
       </c>
       <c r="E27" t="n" s="73">
-        <v>0.29725492536491194</v>
+        <v>0.29759450171821306</v>
       </c>
       <c r="F27" t="n" s="72">
-        <v>4389.0</v>
+        <v>4403.0</v>
       </c>
       <c r="G27" t="n" s="73">
-        <v>1.007453179479999</v>
+        <v>1.0087056128293241</v>
       </c>
       <c r="H27" t="n" s="74">
-        <v>680.0</v>
+        <v>681.0</v>
       </c>
       <c r="I27" t="n" s="74">
-        <v>664.0</v>
+        <v>666.0</v>
       </c>
       <c r="J27" t="n" s="74">
-        <v>1302.0</v>
+        <v>1305.0</v>
       </c>
     </row>
     <row r="28">
@@ -11372,31 +11372,31 @@
         <v>44</v>
       </c>
       <c r="B28" t="n" s="70">
-        <v>1235.0</v>
+        <v>1238.0</v>
       </c>
       <c r="C28" t="n" s="71">
-        <v>0.2834824963904759</v>
+        <v>0.2836197021764032</v>
       </c>
       <c r="D28" t="n" s="70">
-        <v>2408.0</v>
+        <v>2414.0</v>
       </c>
       <c r="E28" t="n" s="71">
-        <v>0.5527334828407012</v>
+        <v>0.5530355097365406</v>
       </c>
       <c r="F28" t="n" s="70">
-        <v>3698.0</v>
+        <v>3711.0</v>
       </c>
       <c r="G28" t="n" s="71">
-        <v>0.8488407057910768</v>
+        <v>0.850171821305842</v>
       </c>
       <c r="H28" t="n" s="70">
-        <v>566.0</v>
+        <v>567.0</v>
       </c>
       <c r="I28" t="n" s="70">
-        <v>869.0</v>
+        <v>871.0</v>
       </c>
       <c r="J28" t="n" s="70">
-        <v>1195.0</v>
+        <v>1198.0</v>
       </c>
     </row>
     <row r="29">
@@ -11404,31 +11404,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="72">
-        <v>2396.0</v>
+        <v>2400.0</v>
       </c>
       <c r="C29" t="n" s="73">
-        <v>0.549978997045814</v>
+        <v>0.5498281786941581</v>
       </c>
       <c r="D29" t="n" s="72">
-        <v>1310.0</v>
+        <v>1313.0</v>
       </c>
       <c r="E29" t="n" s="73">
-        <v>0.30069803260852096</v>
+        <v>0.30080183276059563</v>
       </c>
       <c r="F29" t="n" s="72">
-        <v>3327.0</v>
+        <v>3335.0</v>
       </c>
       <c r="G29" t="n" s="73">
-        <v>0.7636811866324805</v>
+        <v>0.7640320733104238</v>
       </c>
       <c r="H29" t="n" s="74">
-        <v>821.0</v>
+        <v>823.0</v>
       </c>
       <c r="I29" t="n" s="74">
-        <v>547.0</v>
+        <v>550.0</v>
       </c>
       <c r="J29" t="n" s="74">
-        <v>1127.0</v>
+        <v>1129.0</v>
       </c>
     </row>
     <row r="30">
@@ -11436,28 +11436,28 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="70">
-        <v>15496.0</v>
+        <v>15531.0</v>
       </c>
       <c r="C30" t="n" s="71">
-        <v>3.5569593231310237</v>
+        <v>3.5580756013745702</v>
       </c>
       <c r="D30" t="n" s="70">
-        <v>10343.0</v>
+        <v>10355.0</v>
       </c>
       <c r="E30" t="n" s="71">
-        <v>2.3741372147098723</v>
+        <v>2.372279495990836</v>
       </c>
       <c r="F30" t="n" s="70">
-        <v>3618.0</v>
+        <v>3630.0</v>
       </c>
       <c r="G30" t="n" s="71">
-        <v>0.8304774671584954</v>
+        <v>0.8316151202749141</v>
       </c>
       <c r="H30" t="n" s="70">
-        <v>928.0</v>
+        <v>932.0</v>
       </c>
       <c r="I30" t="n" s="70">
-        <v>830.0</v>
+        <v>831.0</v>
       </c>
       <c r="J30" t="n" s="70">
         <v>149.0</v>
@@ -11468,31 +11468,31 @@
         <v>47</v>
       </c>
       <c r="B31" t="n" s="72">
-        <v>7489.0</v>
+        <v>7504.0</v>
       </c>
       <c r="C31" t="n" s="73">
-        <v>1.7190286764925296</v>
+        <v>1.7191294387170677</v>
       </c>
       <c r="D31" t="n" s="72">
-        <v>5644.0</v>
+        <v>5660.0</v>
       </c>
       <c r="E31" t="n" s="73">
-        <v>1.2955264855286202</v>
+        <v>1.2966781214203895</v>
       </c>
       <c r="F31" t="n" s="72">
-        <v>7014.0</v>
+        <v>7031.0</v>
       </c>
       <c r="G31" t="n" s="73">
-        <v>1.6099969471115774</v>
+        <v>1.6107674684994273</v>
       </c>
       <c r="H31" t="n" s="74">
-        <v>670.0</v>
+        <v>672.0</v>
       </c>
       <c r="I31" t="n" s="74">
-        <v>823.0</v>
+        <v>826.0</v>
       </c>
       <c r="J31" t="n" s="74">
-        <v>668.0</v>
+        <v>671.0</v>
       </c>
     </row>
     <row r="32">
@@ -11500,31 +11500,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="70">
-        <v>3293.0</v>
+        <v>3302.0</v>
       </c>
       <c r="C32" t="n" s="71">
-        <v>0.7558768102136334</v>
+        <v>0.7564719358533791</v>
       </c>
       <c r="D32" t="n" s="70">
-        <v>6109.0</v>
+        <v>6130.0</v>
       </c>
       <c r="E32" t="n" s="71">
-        <v>1.4022628100805</v>
+        <v>1.4043528064146622</v>
       </c>
       <c r="F32" t="n" s="70">
-        <v>3225.0</v>
+        <v>3237.0</v>
       </c>
       <c r="G32" t="n" s="71">
-        <v>0.740268057375939</v>
+        <v>0.7415807560137457</v>
       </c>
       <c r="H32" t="n" s="70">
-        <v>589.0</v>
+        <v>590.0</v>
       </c>
       <c r="I32" t="n" s="70">
-        <v>1062.0</v>
+        <v>1064.0</v>
       </c>
       <c r="J32" t="n" s="70">
-        <v>560.0</v>
+        <v>561.0</v>
       </c>
     </row>
     <row r="33">
@@ -11532,31 +11532,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="72">
-        <v>9314.0</v>
+        <v>9344.0</v>
       </c>
       <c r="C33" t="n" s="73">
-        <v>2.1379400577982937</v>
+        <v>2.140664375715922</v>
       </c>
       <c r="D33" t="n" s="72">
-        <v>8714.0</v>
+        <v>8733.0</v>
       </c>
       <c r="E33" t="n" s="73">
-        <v>2.0002157680539328</v>
+        <v>2.0006872852233677</v>
       </c>
       <c r="F33" t="n" s="72">
-        <v>11543.0</v>
+        <v>11578.0</v>
       </c>
       <c r="G33" t="n" s="73">
-        <v>2.6495857941985936</v>
+        <v>2.652462772050401</v>
       </c>
       <c r="H33" t="n" s="74">
-        <v>544.0</v>
+        <v>546.0</v>
       </c>
       <c r="I33" t="n" s="74">
-        <v>617.0</v>
+        <v>619.0</v>
       </c>
       <c r="J33" t="n" s="74">
-        <v>832.0</v>
+        <v>834.0</v>
       </c>
     </row>
     <row r="34">
@@ -11564,28 +11564,28 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="70">
-        <v>10323.0</v>
+        <v>10337.0</v>
       </c>
       <c r="C34" t="n" s="71">
-        <v>2.369546405051727</v>
+        <v>2.36815578465063</v>
       </c>
       <c r="D34" t="n" s="70">
-        <v>7683.0</v>
+        <v>7700.0</v>
       </c>
       <c r="E34" t="n" s="71">
-        <v>1.7635595301765394</v>
+        <v>1.7640320733104238</v>
       </c>
       <c r="F34" t="n" s="70">
-        <v>4060.0</v>
+        <v>4061.0</v>
       </c>
       <c r="G34" t="n" s="71">
-        <v>0.9319343606035079</v>
+        <v>0.9303550973654066</v>
       </c>
       <c r="H34" t="n" s="70">
-        <v>1122.0</v>
+        <v>1123.0</v>
       </c>
       <c r="I34" t="n" s="70">
-        <v>654.0</v>
+        <v>658.0</v>
       </c>
       <c r="J34" t="n" s="70">
         <v>237.0</v>
@@ -11596,28 +11596,28 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="72">
-        <v>4241.0</v>
+        <v>4256.0</v>
       </c>
       <c r="C35" t="n" s="73">
-        <v>0.9734811880097234</v>
+        <v>0.975028636884307</v>
       </c>
       <c r="D35" t="n" s="72">
-        <v>4057.0</v>
+        <v>4068.0</v>
       </c>
       <c r="E35" t="n" s="73">
-        <v>0.9312457391547859</v>
+        <v>0.931958762886598</v>
       </c>
       <c r="F35" t="n" s="72">
-        <v>2428.0</v>
+        <v>2433.0</v>
       </c>
       <c r="G35" t="n" s="73">
-        <v>0.5573242924988466</v>
+        <v>0.5573883161512028</v>
       </c>
       <c r="H35" t="n" s="74">
-        <v>835.0</v>
+        <v>837.0</v>
       </c>
       <c r="I35" t="n" s="74">
-        <v>893.0</v>
+        <v>895.0</v>
       </c>
       <c r="J35" t="n" s="74">
         <v>533.0</v>
@@ -11628,31 +11628,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="70">
-        <v>3372.0</v>
+        <v>3379.0</v>
       </c>
       <c r="C36" t="n" s="71">
-        <v>0.7740105083633075</v>
+        <v>0.7741122565864834</v>
       </c>
       <c r="D36" t="n" s="70">
-        <v>6452.0</v>
+        <v>6479.0</v>
       </c>
       <c r="E36" t="n" s="71">
-        <v>1.4809951957176928</v>
+        <v>1.484306987399771</v>
       </c>
       <c r="F36" t="n" s="70">
         <v>1968.0</v>
       </c>
       <c r="G36" t="n" s="71">
-        <v>0.45173567036150325</v>
+        <v>0.45085910652920963</v>
       </c>
       <c r="H36" t="n" s="70">
-        <v>607.0</v>
+        <v>610.0</v>
       </c>
       <c r="I36" t="n" s="70">
-        <v>1232.0</v>
+        <v>1235.0</v>
       </c>
       <c r="J36" t="n" s="70">
-        <v>377.0</v>
+        <v>378.0</v>
       </c>
     </row>
     <row r="37">
@@ -11660,31 +11660,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="72">
-        <v>6769.0</v>
+        <v>6774.0</v>
       </c>
       <c r="C37" t="n" s="73">
-        <v>1.5537595287992967</v>
+        <v>1.5518900343642612</v>
       </c>
       <c r="D37" t="n" s="72">
-        <v>6458.0</v>
+        <v>6470.0</v>
       </c>
       <c r="E37" t="n" s="73">
-        <v>1.4823724386151365</v>
+        <v>1.4822451317296679</v>
       </c>
       <c r="F37" t="n" s="72">
-        <v>4737.0</v>
+        <v>4747.0</v>
       </c>
       <c r="G37" t="n" s="73">
-        <v>1.0873332675317282</v>
+        <v>1.0875143184421536</v>
       </c>
       <c r="H37" t="n" s="74">
         <v>677.0</v>
       </c>
       <c r="I37" t="n" s="74">
-        <v>847.0</v>
+        <v>849.0</v>
       </c>
       <c r="J37" t="n" s="74">
-        <v>559.0</v>
+        <v>562.0</v>
       </c>
     </row>
     <row r="38">
@@ -11692,28 +11692,28 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="70">
-        <v>8333.0</v>
+        <v>8359.0</v>
       </c>
       <c r="C38" t="n" s="71">
-        <v>1.912760844066264</v>
+        <v>1.9150057273768613</v>
       </c>
       <c r="D38" t="n" s="70">
-        <v>2882.0</v>
+        <v>2889.0</v>
       </c>
       <c r="E38" t="n" s="71">
-        <v>0.6615356717387462</v>
+        <v>0.6618556701030928</v>
       </c>
       <c r="F38" t="n" s="70">
-        <v>2258.0</v>
+        <v>2260.0</v>
       </c>
       <c r="G38" t="n" s="71">
-        <v>0.518302410404611</v>
+        <v>0.5177548682703321</v>
       </c>
       <c r="H38" t="n" s="70">
-        <v>1392.0</v>
+        <v>1395.0</v>
       </c>
       <c r="I38" t="n" s="70">
-        <v>417.0</v>
+        <v>418.0</v>
       </c>
       <c r="J38" t="n" s="70">
         <v>384.0</v>
@@ -11724,31 +11724,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="72">
-        <v>7815.0</v>
+        <v>7842.0</v>
       </c>
       <c r="C39" t="n" s="73">
-        <v>1.793858873920299</v>
+        <v>1.7965635738831613</v>
       </c>
       <c r="D39" t="n" s="72">
-        <v>3816.0</v>
+        <v>3824.0</v>
       </c>
       <c r="E39" t="n" s="73">
-        <v>0.8759264827741345</v>
+        <v>0.8760595647193584</v>
       </c>
       <c r="F39" t="n" s="72">
-        <v>2198.0</v>
+        <v>2202.0</v>
       </c>
       <c r="G39" t="n" s="73">
-        <v>0.5045299814301749</v>
+        <v>0.50446735395189</v>
       </c>
       <c r="H39" t="n" s="74">
-        <v>1206.0</v>
+        <v>1209.0</v>
       </c>
       <c r="I39" t="n" s="74">
         <v>489.0</v>
       </c>
       <c r="J39" t="n" s="74">
-        <v>591.0</v>
+        <v>592.0</v>
       </c>
     </row>
     <row r="40">
@@ -11756,31 +11756,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="70">
-        <v>1812.0</v>
+        <v>1820.0</v>
       </c>
       <c r="C40" t="n" s="71">
-        <v>0.4159273550279695</v>
+        <v>0.4169530355097365</v>
       </c>
       <c r="D40" t="n" s="70">
-        <v>1676.0</v>
+        <v>1680.0</v>
       </c>
       <c r="E40" t="n" s="71">
-        <v>0.38470984935258107</v>
+        <v>0.3848797250859107</v>
       </c>
       <c r="F40" t="n" s="70">
-        <v>1003.0</v>
+        <v>1004.0</v>
       </c>
       <c r="G40" t="n" s="71">
-        <v>0.23022910435598976</v>
+        <v>0.2300114547537228</v>
       </c>
       <c r="H40" t="n" s="70">
-        <v>1076.0</v>
+        <v>1079.0</v>
       </c>
       <c r="I40" t="n" s="70">
-        <v>1131.0</v>
+        <v>1134.0</v>
       </c>
       <c r="J40" t="n" s="70">
-        <v>805.0</v>
+        <v>807.0</v>
       </c>
     </row>
     <row r="41">
@@ -11788,31 +11788,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="72">
-        <v>8445.0</v>
+        <v>8466.0</v>
       </c>
       <c r="C41" t="n" s="73">
-        <v>1.9384693781518778</v>
+        <v>1.9395189003436424</v>
       </c>
       <c r="D41" t="n" s="72">
-        <v>3617.0</v>
+        <v>3627.0</v>
       </c>
       <c r="E41" t="n" s="73">
-        <v>0.8302479266755881</v>
+        <v>0.8309278350515463</v>
       </c>
       <c r="F41" t="n" s="72">
-        <v>2818.0</v>
+        <v>2827.0</v>
       </c>
       <c r="G41" t="n" s="73">
-        <v>0.6468450808326811</v>
+        <v>0.6476517754868271</v>
       </c>
       <c r="H41" t="n" s="74">
-        <v>1246.0</v>
+        <v>1250.0</v>
       </c>
       <c r="I41" t="n" s="74">
         <v>477.0</v>
       </c>
       <c r="J41" t="n" s="74">
-        <v>402.0</v>
+        <v>403.0</v>
       </c>
     </row>
     <row r="42">
@@ -11820,31 +11820,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="70">
-        <v>9885.0</v>
+        <v>9918.0</v>
       </c>
       <c r="C42" t="n" s="71">
-        <v>2.2690076735383435</v>
+        <v>2.272164948453608</v>
       </c>
       <c r="D42" t="n" s="70">
-        <v>2485.0</v>
+        <v>2487.0</v>
       </c>
       <c r="E42" t="n" s="71">
-        <v>0.5704081000245608</v>
+        <v>0.5697594501718213</v>
       </c>
       <c r="F42" t="n" s="70">
-        <v>3402.0</v>
+        <v>3404.0</v>
       </c>
       <c r="G42" t="n" s="71">
-        <v>0.7808967228505256</v>
+        <v>0.7798396334478809</v>
       </c>
       <c r="H42" t="n" s="70">
-        <v>1338.0</v>
+        <v>1342.0</v>
       </c>
       <c r="I42" t="n" s="70">
-        <v>366.0</v>
+        <v>367.0</v>
       </c>
       <c r="J42" t="n" s="70">
-        <v>461.0</v>
+        <v>462.0</v>
       </c>
     </row>
     <row r="43">
@@ -11852,31 +11852,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="72">
-        <v>4439.0</v>
+        <v>4458.0</v>
       </c>
       <c r="C43" t="n" s="73">
-        <v>1.0189302036253625</v>
+        <v>1.0213058419243985</v>
       </c>
       <c r="D43" t="n" s="72">
-        <v>1558.0</v>
+        <v>1559.0</v>
       </c>
       <c r="E43" t="n" s="73">
-        <v>0.3576240723695234</v>
+        <v>0.35715922107674686</v>
       </c>
       <c r="F43" t="n" s="72">
-        <v>3466.0</v>
+        <v>3480.0</v>
       </c>
       <c r="G43" t="n" s="73">
-        <v>0.7955873137565908</v>
+        <v>0.7972508591065292</v>
       </c>
       <c r="H43" t="n" s="74">
-        <v>1054.0</v>
+        <v>1057.0</v>
       </c>
       <c r="I43" t="n" s="74">
-        <v>526.0</v>
+        <v>527.0</v>
       </c>
       <c r="J43" t="n" s="74">
-        <v>909.0</v>
+        <v>911.0</v>
       </c>
     </row>
     <row r="44">
@@ -11884,31 +11884,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="70">
-        <v>3720.0</v>
+        <v>3737.0</v>
       </c>
       <c r="C44" t="n" s="71">
-        <v>0.8538905964150366</v>
+        <v>0.8561282932416953</v>
       </c>
       <c r="D44" t="n" s="70">
-        <v>3101.0</v>
+        <v>3113.0</v>
       </c>
       <c r="E44" t="n" s="71">
-        <v>0.7118050374954379</v>
+        <v>0.7131729667812142</v>
       </c>
       <c r="F44" t="n" s="70">
-        <v>3447.0</v>
+        <v>3466.0</v>
       </c>
       <c r="G44" t="n" s="71">
-        <v>0.7912260445813526</v>
+        <v>0.7940435280641466</v>
       </c>
       <c r="H44" t="n" s="70">
-        <v>1066.0</v>
+        <v>1069.0</v>
       </c>
       <c r="I44" t="n" s="70">
-        <v>789.0</v>
+        <v>790.0</v>
       </c>
       <c r="J44" t="n" s="70">
-        <v>985.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="45">
@@ -11916,31 +11916,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="72">
-        <v>6742.0</v>
+        <v>6750.0</v>
       </c>
       <c r="C45" t="n" s="73">
-        <v>1.5475619357608006</v>
+        <v>1.5463917525773196</v>
       </c>
       <c r="D45" t="n" s="72">
-        <v>2435.0</v>
+        <v>2441.0</v>
       </c>
       <c r="E45" t="n" s="73">
-        <v>0.5589310758791974</v>
+        <v>0.55922107674685</v>
       </c>
       <c r="F45" t="n" s="72">
-        <v>3081.0</v>
+        <v>3090.0</v>
       </c>
       <c r="G45" t="n" s="73">
-        <v>0.7072142278372926</v>
+        <v>0.7079037800687286</v>
       </c>
       <c r="H45" t="n" s="74">
-        <v>1326.0</v>
+        <v>1329.0</v>
       </c>
       <c r="I45" t="n" s="74">
-        <v>475.0</v>
+        <v>476.0</v>
       </c>
       <c r="J45" t="n" s="74">
-        <v>587.0</v>
+        <v>589.0</v>
       </c>
     </row>
     <row r="46">
@@ -11948,31 +11948,31 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="70">
-        <v>9203.0</v>
+        <v>9220.0</v>
       </c>
       <c r="C46" t="n" s="71">
-        <v>2.1124610641955868</v>
+        <v>2.1122565864833907</v>
       </c>
       <c r="D46" t="n" s="70">
-        <v>4806.0</v>
+        <v>4810.0</v>
       </c>
       <c r="E46" t="n" s="71">
-        <v>1.1031715608523296</v>
+        <v>1.1019473081328752</v>
       </c>
       <c r="F46" t="n" s="70">
-        <v>1676.0</v>
+        <v>1679.0</v>
       </c>
       <c r="G46" t="n" s="71">
-        <v>0.38470984935258107</v>
+        <v>0.3846506300114547</v>
       </c>
       <c r="H46" t="n" s="70">
-        <v>1331.0</v>
+        <v>1334.0</v>
       </c>
       <c r="I46" t="n" s="70">
-        <v>538.0</v>
+        <v>540.0</v>
       </c>
       <c r="J46" t="n" s="70">
-        <v>212.0</v>
+        <v>213.0</v>
       </c>
     </row>
     <row r="47">
@@ -11980,28 +11980,28 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="72">
-        <v>3549.0</v>
+        <v>3565.0</v>
       </c>
       <c r="C47" t="n" s="73">
-        <v>0.8146391738378939</v>
+        <v>0.8167239404352806</v>
       </c>
       <c r="D47" t="n" s="72">
-        <v>3130.0</v>
+        <v>3132.0</v>
       </c>
       <c r="E47" t="n" s="73">
-        <v>0.7184617114997486</v>
+        <v>0.7175257731958763</v>
       </c>
       <c r="F47" t="n" s="72">
-        <v>2104.0</v>
+        <v>2106.0</v>
       </c>
       <c r="G47" t="n" s="73">
-        <v>0.48295317603689175</v>
+        <v>0.48247422680412366</v>
       </c>
       <c r="H47" t="n" s="74">
-        <v>944.0</v>
+        <v>948.0</v>
       </c>
       <c r="I47" t="n" s="74">
-        <v>886.0</v>
+        <v>887.0</v>
       </c>
       <c r="J47" t="n" s="74">
         <v>622.0</v>
@@ -12012,31 +12012,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="70">
-        <v>2960.0</v>
+        <v>2974.0</v>
       </c>
       <c r="C48" t="n" s="71">
-        <v>0.6794398294055131</v>
+        <v>0.6813287514318442</v>
       </c>
       <c r="D48" t="n" s="70">
-        <v>3978.0</v>
+        <v>3987.0</v>
       </c>
       <c r="E48" t="n" s="71">
-        <v>0.9131120410051119</v>
+        <v>0.9134020618556701</v>
       </c>
       <c r="F48" t="n" s="70">
-        <v>1451.0</v>
+        <v>1457.0</v>
       </c>
       <c r="G48" t="n" s="71">
-        <v>0.3330632406984458</v>
+        <v>0.3337915234822451</v>
       </c>
       <c r="H48" t="n" s="70">
-        <v>833.0</v>
+        <v>835.0</v>
       </c>
       <c r="I48" t="n" s="70">
-        <v>1186.0</v>
+        <v>1187.0</v>
       </c>
       <c r="J48" t="n" s="70">
-        <v>549.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="49">
@@ -12044,31 +12044,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="72">
-        <v>7069.0</v>
+        <v>7089.0</v>
       </c>
       <c r="C49" t="n" s="73">
-        <v>1.6226216736714771</v>
+        <v>1.6240549828178696</v>
       </c>
       <c r="D49" t="n" s="72">
-        <v>4886.0</v>
+        <v>4889.0</v>
       </c>
       <c r="E49" t="n" s="73">
-        <v>1.1215347994849112</v>
+        <v>1.1200458190148912</v>
       </c>
       <c r="F49" t="n" s="72">
-        <v>4499.0</v>
+        <v>4517.0</v>
       </c>
       <c r="G49" t="n" s="73">
-        <v>1.0327026325997986</v>
+        <v>1.0348224513172968</v>
       </c>
       <c r="H49" t="n" s="74">
-        <v>1065.0</v>
+        <v>1067.0</v>
       </c>
       <c r="I49" t="n" s="74">
-        <v>649.0</v>
+        <v>650.0</v>
       </c>
       <c r="J49" t="n" s="74">
-        <v>583.0</v>
+        <v>586.0</v>
       </c>
     </row>
     <row r="50">
@@ -12082,25 +12082,25 @@
         <v>0.0</v>
       </c>
       <c r="D50" t="n" s="70">
-        <v>21179.0</v>
+        <v>21207.0</v>
       </c>
       <c r="E50" t="n" s="71">
-        <v>4.861437887493027</v>
+        <v>4.858419243986254</v>
       </c>
       <c r="F50" t="n" s="70">
-        <v>12198.0</v>
+        <v>12206.0</v>
       </c>
       <c r="G50" t="n" s="71">
-        <v>2.799934810502854</v>
+        <v>2.7963344788087054</v>
       </c>
       <c r="H50" t="n" s="70">
         <v>20.0</v>
       </c>
       <c r="I50" t="n" s="70">
-        <v>1344.0</v>
+        <v>1348.0</v>
       </c>
       <c r="J50" t="n" s="70">
-        <v>480.0</v>
+        <v>481.0</v>
       </c>
     </row>
     <row r="51">
@@ -12108,31 +12108,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="72">
-        <v>5220.0</v>
+        <v>5233.0</v>
       </c>
       <c r="C51" t="n" s="73">
-        <v>1.1982013207759385</v>
+        <v>1.1988545246277205</v>
       </c>
       <c r="D51" t="n" s="72">
-        <v>10028.0</v>
+        <v>10038.0</v>
       </c>
       <c r="E51" t="n" s="73">
-        <v>2.301831962594083</v>
+        <v>2.299656357388316</v>
       </c>
       <c r="F51" t="n" s="72">
-        <v>8132.0</v>
+        <v>8141.0</v>
       </c>
       <c r="G51" t="n" s="73">
-        <v>1.866623207001903</v>
+        <v>1.8650630011454754</v>
       </c>
       <c r="H51" t="n" s="74">
-        <v>292.0</v>
+        <v>295.0</v>
       </c>
       <c r="I51" t="n" s="74">
-        <v>1034.0</v>
+        <v>1036.0</v>
       </c>
       <c r="J51" t="n" s="74">
-        <v>699.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="52">
@@ -12146,22 +12146,22 @@
         <v>0.0</v>
       </c>
       <c r="D52" t="n" s="70">
-        <v>16410.0</v>
+        <v>16443.0</v>
       </c>
       <c r="E52" t="n" s="71">
-        <v>3.766759324508267</v>
+        <v>3.7670103092783505</v>
       </c>
       <c r="F52" t="n" s="70">
-        <v>4687.0</v>
+        <v>4689.0</v>
       </c>
       <c r="G52" t="n" s="71">
-        <v>1.075856243386365</v>
+        <v>1.0742268041237113</v>
       </c>
       <c r="H52" t="n" s="70">
         <v>54.0</v>
       </c>
       <c r="I52" t="n" s="70">
-        <v>1490.0</v>
+        <v>1494.0</v>
       </c>
       <c r="J52" t="n" s="70">
         <v>344.0</v>
@@ -12172,31 +12172,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="72">
-        <v>9947.0</v>
+        <v>9960.0</v>
       </c>
       <c r="C53" t="n" s="73">
-        <v>2.283239183478594</v>
+        <v>2.281786941580756</v>
       </c>
       <c r="D53" t="n" s="72">
-        <v>14778.0</v>
+        <v>14794.0</v>
       </c>
       <c r="E53" t="n" s="73">
-        <v>3.3921492564036058</v>
+        <v>3.389232531500573</v>
       </c>
       <c r="F53" t="n" s="72">
-        <v>19143.0</v>
+        <v>19172.0</v>
       </c>
       <c r="G53" t="n" s="73">
-        <v>4.39409346429383</v>
+        <v>4.3922107674685</v>
       </c>
       <c r="H53" t="n" s="74">
-        <v>282.0</v>
+        <v>283.0</v>
       </c>
       <c r="I53" t="n" s="74">
-        <v>584.0</v>
+        <v>585.0</v>
       </c>
       <c r="J53" t="n" s="74">
-        <v>1066.0</v>
+        <v>1069.0</v>
       </c>
     </row>
     <row r="54">
@@ -12204,31 +12204,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="70">
-        <v>9597.0</v>
+        <v>9611.0</v>
       </c>
       <c r="C54" t="n" s="71">
-        <v>2.20290001446105</v>
+        <v>2.2018327605956474</v>
       </c>
       <c r="D54" t="n" s="70">
-        <v>9782.0</v>
+        <v>9791.0</v>
       </c>
       <c r="E54" t="n" s="71">
-        <v>2.245365003798895</v>
+        <v>2.243069873997709</v>
       </c>
       <c r="F54" t="n" s="70">
-        <v>7240.0</v>
+        <v>7252.0</v>
       </c>
       <c r="G54" t="n" s="71">
-        <v>1.6618730962486201</v>
+        <v>1.661397479954181</v>
       </c>
       <c r="H54" t="n" s="70">
-        <v>745.0</v>
+        <v>748.0</v>
       </c>
       <c r="I54" t="n" s="70">
-        <v>699.0</v>
+        <v>700.0</v>
       </c>
       <c r="J54" t="n" s="70">
-        <v>554.0</v>
+        <v>555.0</v>
       </c>
     </row>
     <row r="55">
@@ -12236,31 +12236,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="72">
-        <v>5604.0</v>
+        <v>5616.0</v>
       </c>
       <c r="C55" t="n" s="73">
-        <v>1.2863448662123296</v>
+        <v>1.2865979381443298</v>
       </c>
       <c r="D55" t="n" s="72">
-        <v>9699.0</v>
+        <v>9721.0</v>
       </c>
       <c r="E55" t="n" s="73">
-        <v>2.226313143717592</v>
+        <v>2.227033218785796</v>
       </c>
       <c r="F55" t="n" s="72">
-        <v>5851.0</v>
+        <v>5861.0</v>
       </c>
       <c r="G55" t="n" s="73">
-        <v>1.3430413654904247</v>
+        <v>1.3427262313860253</v>
       </c>
       <c r="H55" t="n" s="74">
-        <v>413.0</v>
+        <v>414.0</v>
       </c>
       <c r="I55" t="n" s="74">
-        <v>877.0</v>
+        <v>879.0</v>
       </c>
       <c r="J55" t="n" s="74">
-        <v>755.0</v>
+        <v>757.0</v>
       </c>
     </row>
     <row r="56">
@@ -12268,31 +12268,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="70">
-        <v>1969.0</v>
+        <v>1971.0</v>
       </c>
       <c r="C56" t="n" s="71">
-        <v>0.4519652108444106</v>
+        <v>0.4515463917525773</v>
       </c>
       <c r="D56" t="n" s="70">
-        <v>5547.0</v>
+        <v>5567.0</v>
       </c>
       <c r="E56" t="n" s="71">
-        <v>1.2732610586866153</v>
+        <v>1.275372279495991</v>
       </c>
       <c r="F56" t="n" s="70">
-        <v>3402.0</v>
+        <v>3409.0</v>
       </c>
       <c r="G56" t="n" s="71">
-        <v>0.7808967228505256</v>
+        <v>0.7809851088201604</v>
       </c>
       <c r="H56" t="n" s="70">
-        <v>412.0</v>
+        <v>413.0</v>
       </c>
       <c r="I56" t="n" s="70">
-        <v>1122.0</v>
+        <v>1125.0</v>
       </c>
       <c r="J56" t="n" s="70">
-        <v>751.0</v>
+        <v>753.0</v>
       </c>
     </row>
     <row r="57">
@@ -12300,31 +12300,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="72">
-        <v>8000.0</v>
+        <v>8016.0</v>
       </c>
       <c r="C57" t="n" s="73">
-        <v>1.8363238632581436</v>
+        <v>1.8364261168384879</v>
       </c>
       <c r="D57" t="n" s="72">
-        <v>9587.0</v>
+        <v>9613.0</v>
       </c>
       <c r="E57" t="n" s="73">
-        <v>2.2006046096319776</v>
+        <v>2.2022909507445587</v>
       </c>
       <c r="F57" t="n" s="72">
-        <v>9084.0</v>
+        <v>9110.0</v>
       </c>
       <c r="G57" t="n" s="73">
-        <v>2.085145746729622</v>
+        <v>2.087056128293242</v>
       </c>
       <c r="H57" t="n" s="74">
-        <v>611.0</v>
+        <v>612.0</v>
       </c>
       <c r="I57" t="n" s="74">
-        <v>761.0</v>
+        <v>762.0</v>
       </c>
       <c r="J57" t="n" s="74">
-        <v>651.0</v>
+        <v>653.0</v>
       </c>
     </row>
     <row r="58">
@@ -12332,31 +12332,31 @@
         <v>74</v>
       </c>
       <c r="B58" t="n" s="70">
-        <v>5761.0</v>
+        <v>5789.0</v>
       </c>
       <c r="C58" t="n" s="71">
-        <v>1.3223827220287705</v>
+        <v>1.3262313860252004</v>
       </c>
       <c r="D58" t="n" s="70">
-        <v>5418.0</v>
+        <v>5428.0</v>
       </c>
       <c r="E58" t="n" s="71">
-        <v>1.2436503363915778</v>
+        <v>1.2435280641466209</v>
       </c>
       <c r="F58" t="n" s="70">
-        <v>7316.0</v>
+        <v>7329.0</v>
       </c>
       <c r="G58" t="n" s="71">
-        <v>1.679318172949572</v>
+        <v>1.679037800687285</v>
       </c>
       <c r="H58" t="n" s="70">
-        <v>644.0</v>
+        <v>647.0</v>
       </c>
       <c r="I58" t="n" s="70">
-        <v>592.0</v>
+        <v>594.0</v>
       </c>
       <c r="J58" t="n" s="70">
-        <v>713.0</v>
+        <v>714.0</v>
       </c>
     </row>
     <row r="59">
@@ -12364,31 +12364,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="72">
-        <v>1953.0</v>
+        <v>1955.0</v>
       </c>
       <c r="C59" t="n" s="73">
-        <v>0.4482925631178943</v>
+        <v>0.44788087056128295</v>
       </c>
       <c r="D59" t="n" s="72">
-        <v>3547.0</v>
+        <v>3556.0</v>
       </c>
       <c r="E59" t="n" s="73">
-        <v>0.8141800928720794</v>
+        <v>0.8146620847651775</v>
       </c>
       <c r="F59" t="n" s="72">
-        <v>7313.0</v>
+        <v>7337.0</v>
       </c>
       <c r="G59" t="n" s="73">
-        <v>1.6786295515008505</v>
+        <v>1.6808705612829327</v>
       </c>
       <c r="H59" t="n" s="74">
         <v>292.0</v>
       </c>
       <c r="I59" t="n" s="74">
-        <v>557.0</v>
+        <v>558.0</v>
       </c>
       <c r="J59" t="n" s="74">
-        <v>1223.0</v>
+        <v>1227.0</v>
       </c>
     </row>
     <row r="60">
@@ -12396,31 +12396,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="70">
-        <v>3112.0</v>
+        <v>3113.0</v>
       </c>
       <c r="C60" t="n" s="71">
-        <v>0.7143299828074179</v>
+        <v>0.7131729667812142</v>
       </c>
       <c r="D60" t="n" s="70">
-        <v>5466.0</v>
+        <v>5490.0</v>
       </c>
       <c r="E60" t="n" s="71">
-        <v>1.2546682795711266</v>
+        <v>1.2577319587628866</v>
       </c>
       <c r="F60" t="n" s="70">
-        <v>7306.0</v>
+        <v>7325.0</v>
       </c>
       <c r="G60" t="n" s="71">
-        <v>1.6770227681204997</v>
+        <v>1.6781214203894617</v>
       </c>
       <c r="H60" t="n" s="70">
-        <v>391.0</v>
+        <v>392.0</v>
       </c>
       <c r="I60" t="n" s="70">
-        <v>759.0</v>
+        <v>762.0</v>
       </c>
       <c r="J60" t="n" s="70">
-        <v>1094.0</v>
+        <v>1096.0</v>
       </c>
     </row>
     <row r="61">
@@ -12428,31 +12428,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="72">
-        <v>2823.0</v>
+        <v>2827.0</v>
       </c>
       <c r="C61" t="n" s="73">
-        <v>0.6479927832472173</v>
+        <v>0.6476517754868271</v>
       </c>
       <c r="D61" t="n" s="72">
-        <v>4035.0</v>
+        <v>4050.0</v>
       </c>
       <c r="E61" t="n" s="73">
-        <v>0.9261958485308261</v>
+        <v>0.9278350515463918</v>
       </c>
       <c r="F61" t="n" s="72">
-        <v>7543.0</v>
+        <v>7564.0</v>
       </c>
       <c r="G61" t="n" s="73">
-        <v>1.731423862569522</v>
+        <v>1.7328751431844216</v>
       </c>
       <c r="H61" t="n" s="74">
-        <v>441.0</v>
+        <v>442.0</v>
       </c>
       <c r="I61" t="n" s="74">
-        <v>547.0</v>
+        <v>549.0</v>
       </c>
       <c r="J61" t="n" s="74">
-        <v>1236.0</v>
+        <v>1238.0</v>
       </c>
     </row>
     <row r="62">
@@ -12460,28 +12460,28 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="70">
-        <v>20268.0</v>
+        <v>20289.0</v>
       </c>
       <c r="C62" t="n" s="71">
-        <v>4.652326507564506</v>
+        <v>4.648109965635739</v>
       </c>
       <c r="D62" t="n" s="70">
-        <v>17431.0</v>
+        <v>17457.0</v>
       </c>
       <c r="E62" t="n" s="71">
-        <v>4.001120157556588</v>
+        <v>3.9993127147766323</v>
       </c>
       <c r="F62" t="n" s="70">
-        <v>5969.0</v>
+        <v>5979.0</v>
       </c>
       <c r="G62" t="n" s="71">
-        <v>1.3701271424734822</v>
+        <v>1.3697594501718213</v>
       </c>
       <c r="H62" t="n" s="70">
-        <v>1021.0</v>
+        <v>1023.0</v>
       </c>
       <c r="I62" t="n" s="70">
-        <v>776.0</v>
+        <v>778.0</v>
       </c>
       <c r="J62" t="n" s="70">
         <v>121.0</v>
@@ -12492,31 +12492,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="72">
-        <v>11880.0</v>
+        <v>11911.0</v>
       </c>
       <c r="C63" t="n" s="73">
-        <v>2.7269409369383433</v>
+        <v>2.7287514318442154</v>
       </c>
       <c r="D63" t="n" s="72">
-        <v>10629.0</v>
+        <v>10656.0</v>
       </c>
       <c r="E63" t="n" s="73">
-        <v>2.439785792821351</v>
+        <v>2.441237113402062</v>
       </c>
       <c r="F63" t="n" s="72">
-        <v>8093.0</v>
+        <v>8108.0</v>
       </c>
       <c r="G63" t="n" s="73">
-        <v>1.8576711281685194</v>
+        <v>1.8575028636884305</v>
       </c>
       <c r="H63" t="n" s="74">
-        <v>745.0</v>
+        <v>747.0</v>
       </c>
       <c r="I63" t="n" s="74">
-        <v>709.0</v>
+        <v>710.0</v>
       </c>
       <c r="J63" t="n" s="74">
-        <v>517.0</v>
+        <v>518.0</v>
       </c>
     </row>
     <row r="64">
@@ -12524,31 +12524,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="70">
-        <v>4545.0</v>
+        <v>4556.0</v>
       </c>
       <c r="C64" t="n" s="71">
-        <v>1.0432614948135328</v>
+        <v>1.0437571592210768</v>
       </c>
       <c r="D64" t="n" s="70">
-        <v>11938.0</v>
+        <v>11972.0</v>
       </c>
       <c r="E64" t="n" s="71">
-        <v>2.7402542849469644</v>
+        <v>2.7427262313860252</v>
       </c>
       <c r="F64" t="n" s="70">
-        <v>4121.0</v>
+        <v>4130.0</v>
       </c>
       <c r="G64" t="n" s="71">
-        <v>0.9459363300608512</v>
+        <v>0.9461626575028637</v>
       </c>
       <c r="H64" t="n" s="70">
-        <v>385.0</v>
+        <v>386.0</v>
       </c>
       <c r="I64" t="n" s="70">
-        <v>1349.0</v>
+        <v>1351.0</v>
       </c>
       <c r="J64" t="n" s="70">
-        <v>249.0</v>
+        <v>250.0</v>
       </c>
     </row>
     <row r="65">
@@ -12556,31 +12556,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="72">
-        <v>18349.0</v>
+        <v>18385.0</v>
       </c>
       <c r="C65" t="n" s="73">
-        <v>4.21183832086546</v>
+        <v>4.211912943871707</v>
       </c>
       <c r="D65" t="n" s="72">
-        <v>15072.0</v>
+        <v>15104.0</v>
       </c>
       <c r="E65" t="n" s="73">
-        <v>3.4596341583783428</v>
+        <v>3.460252004581901</v>
       </c>
       <c r="F65" t="n" s="72">
-        <v>19519.0</v>
+        <v>19544.0</v>
       </c>
       <c r="G65" t="n" s="73">
-        <v>4.480400685866963</v>
+        <v>4.477434135166094</v>
       </c>
       <c r="H65" t="n" s="74">
-        <v>817.0</v>
+        <v>820.0</v>
       </c>
       <c r="I65" t="n" s="74">
-        <v>383.0</v>
+        <v>384.0</v>
       </c>
       <c r="J65" t="n" s="74">
-        <v>864.0</v>
+        <v>865.0</v>
       </c>
     </row>
     <row r="67">
@@ -12588,31 +12588,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="72">
-        <v>435653.0</v>
+        <v>436500.0</v>
       </c>
       <c r="C67" t="n" s="73">
+        <v>99.99999999999999</v>
+      </c>
+      <c r="D67" t="n" s="72">
+        <v>436500.0</v>
+      </c>
+      <c r="E67" t="n" s="73">
+        <v>100.00000000000001</v>
+      </c>
+      <c r="F67" t="n" s="72">
+        <v>436500.0</v>
+      </c>
+      <c r="G67" t="n" s="73">
         <v>99.99999999999997</v>
       </c>
-      <c r="D67" t="n" s="72">
-        <v>435653.0</v>
-      </c>
-      <c r="E67" t="n" s="73">
-        <v>100.00000000000003</v>
-      </c>
-      <c r="F67" t="n" s="72">
-        <v>435653.0</v>
-      </c>
-      <c r="G67" t="n" s="73">
-        <v>100.0</v>
-      </c>
       <c r="H67" t="n" s="72">
-        <v>140998.0</v>
+        <v>141482.0</v>
       </c>
       <c r="I67" t="n" s="72">
-        <v>140452.0</v>
+        <v>140892.0</v>
       </c>
       <c r="J67" t="n" s="72">
-        <v>141960.0</v>
+        <v>142428.0</v>
       </c>
     </row>
     <row r="68"/>
@@ -12621,16 +12621,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="79">
-        <v>63452.0</v>
+        <v>63528.0</v>
       </c>
       <c r="C71" t="n" s="80">
-        <v>9.703787645915437</v>
+        <v>9.696547871439234</v>
       </c>
       <c r="D71" t="n" s="79">
-        <v>63693.0</v>
+        <v>63753.0</v>
       </c>
       <c r="E71" t="n" s="80">
-        <v>9.740644054266092</v>
+        <v>9.730890574988438</v>
       </c>
     </row>
     <row r="72">
@@ -12638,16 +12638,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="77">
-        <v>39354.0</v>
+        <v>39430.0</v>
       </c>
       <c r="C72" t="n" s="78">
-        <v>6.018452673160123</v>
+        <v>6.018368004200495</v>
       </c>
       <c r="D72" t="n" s="77">
-        <v>38564.0</v>
+        <v>38652.0</v>
       </c>
       <c r="E72" t="n" s="78">
-        <v>5.8976370607243735</v>
+        <v>5.899618567039247</v>
       </c>
     </row>
     <row r="73">
@@ -12655,16 +12655,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="79">
-        <v>32288.0</v>
+        <v>32349.0</v>
       </c>
       <c r="C73" t="n" s="80">
-        <v>4.9378411320575815</v>
+        <v>4.937564964947548</v>
       </c>
       <c r="D73" t="n" s="79">
-        <v>32730.0</v>
+        <v>32792.0</v>
       </c>
       <c r="E73" t="n" s="80">
-        <v>5.005436702559609</v>
+        <v>5.00518193237998</v>
       </c>
     </row>
     <row r="74">
@@ -12672,16 +12672,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="77">
-        <v>65633.0</v>
+        <v>65722.0</v>
       </c>
       <c r="C74" t="n" s="78">
-        <v>10.037330494931098</v>
+        <v>10.031427389603472</v>
       </c>
       <c r="D74" t="n" s="77">
-        <v>63625.0</v>
+        <v>63700.0</v>
       </c>
       <c r="E74" t="n" s="78">
-        <v>9.730244735727316</v>
+        <v>9.722800960374625</v>
       </c>
     </row>
     <row r="75">
@@ -12689,16 +12689,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="79">
-        <v>42840.0</v>
+        <v>42924.0</v>
       </c>
       <c r="C75" t="n" s="80">
-        <v>6.5515706794272415</v>
+        <v>6.551672031760132</v>
       </c>
       <c r="D75" t="n" s="79">
-        <v>43436.0</v>
+        <v>43515.0</v>
       </c>
       <c r="E75" t="n" s="80">
-        <v>6.64271764779649</v>
+        <v>6.641878866416041</v>
       </c>
     </row>
     <row r="76">
@@ -12706,16 +12706,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="77">
-        <v>37135.0</v>
+        <v>37231.0</v>
       </c>
       <c r="C76" t="n" s="78">
-        <v>5.67909844025515</v>
+        <v>5.682725314846274</v>
       </c>
       <c r="D76" t="n" s="77">
-        <v>37748.0</v>
+        <v>37848.0</v>
       </c>
       <c r="E76" t="n" s="78">
-        <v>5.772845238259093</v>
+        <v>5.7769006396900915</v>
       </c>
     </row>
     <row r="77">
@@ -12723,16 +12723,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="79">
-        <v>15972.0</v>
+        <v>16010.0</v>
       </c>
       <c r="C77" t="n" s="80">
-        <v>2.4426164073718932</v>
+        <v>2.4436741503233557</v>
       </c>
       <c r="D77" t="n" s="79">
-        <v>15903.0</v>
+        <v>15936.0</v>
       </c>
       <c r="E77" t="n" s="80">
-        <v>2.432064157678138</v>
+        <v>2.4323792167116176</v>
       </c>
     </row>
     <row r="78">
@@ -12740,16 +12740,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="77">
-        <v>45438.0</v>
+        <v>45556.0</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>6.9488858200703785</v>
+        <v>6.953405346166821</v>
       </c>
       <c r="D78" t="n" s="77">
-        <v>46364.0</v>
+        <v>46479.0</v>
       </c>
       <c r="E78" t="n" s="78">
-        <v>7.090500069583676</v>
+        <v>7.094286747837554</v>
       </c>
     </row>
     <row r="79">
@@ -12757,16 +12757,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="79">
-        <v>31685.0</v>
+        <v>31740.0</v>
       </c>
       <c r="C79" t="n" s="80">
-        <v>4.8456236456034585</v>
+        <v>4.844610714007702</v>
       </c>
       <c r="D79" t="n" s="79">
-        <v>30863.0</v>
+        <v>30932.0</v>
       </c>
       <c r="E79" t="n" s="80">
-        <v>4.719914236208286</v>
+        <v>4.721282249706561</v>
       </c>
     </row>
     <row r="80">
@@ -12774,16 +12774,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="77">
-        <v>23806.0</v>
+        <v>23869.0</v>
       </c>
       <c r="C80" t="n" s="78">
-        <v>3.640679075500582</v>
+        <v>3.64322662673755</v>
       </c>
       <c r="D80" t="n" s="77">
-        <v>22867.0</v>
+        <v>22931.0</v>
       </c>
       <c r="E80" t="n" s="78">
-        <v>3.4970767209725198</v>
+        <v>3.500055711496869</v>
       </c>
     </row>
     <row r="81">
@@ -12791,16 +12791,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="79">
-        <v>23718.0</v>
+        <v>23793.0</v>
       </c>
       <c r="C81" t="n" s="80">
-        <v>3.6272211338621694</v>
+        <v>3.631626424649819</v>
       </c>
       <c r="D81" t="n" s="79">
-        <v>24043.0</v>
+        <v>24110.0</v>
       </c>
       <c r="E81" t="n" s="80">
-        <v>3.676923759231307</v>
+        <v>3.6800114780946975</v>
       </c>
     </row>
     <row r="82">
@@ -12808,16 +12808,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="77">
-        <v>25122.0</v>
+        <v>25186.0</v>
       </c>
       <c r="C82" t="n" s="78">
-        <v>3.8419364754568432</v>
+        <v>3.84424591817889</v>
       </c>
       <c r="D82" t="n" s="77">
-        <v>24189.0</v>
+        <v>24239.0</v>
       </c>
       <c r="E82" t="n" s="78">
-        <v>3.699251707858673</v>
+        <v>3.6997012947962413</v>
       </c>
     </row>
     <row r="83">
@@ -12825,16 +12825,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="79">
-        <v>60635.0</v>
+        <v>60705.0</v>
       </c>
       <c r="C83" t="n" s="80">
-        <v>9.272980582331252</v>
+        <v>9.265661417575222</v>
       </c>
       <c r="D83" t="n" s="79">
-        <v>61814.0</v>
+        <v>61908.0</v>
       </c>
       <c r="E83" t="n" s="80">
-        <v>9.453286414054984</v>
+        <v>9.449280405884966</v>
       </c>
     </row>
     <row r="84">
@@ -12842,16 +12842,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="77">
-        <v>43156.0</v>
+        <v>43248.0</v>
       </c>
       <c r="C84" t="n" s="78">
-        <v>6.599896924401542</v>
+        <v>6.601125524870986</v>
       </c>
       <c r="D84" t="n" s="77">
-        <v>42206.0</v>
+        <v>42290.0</v>
       </c>
       <c r="E84" t="n" s="78">
-        <v>6.454612327168678</v>
+        <v>6.454901924870375</v>
       </c>
     </row>
     <row r="85">
@@ -12859,16 +12859,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="79">
-        <v>29984.0</v>
+        <v>30060.0</v>
       </c>
       <c r="C85" t="n" s="80">
-        <v>4.585487750979142</v>
+        <v>4.588185194173646</v>
       </c>
       <c r="D85" t="n" s="79">
-        <v>31701.0</v>
+        <v>31795.0</v>
       </c>
       <c r="E85" t="n" s="80">
-        <v>4.84807054408317</v>
+        <v>4.853005597097507</v>
       </c>
     </row>
     <row r="86">
@@ -12876,16 +12876,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="77">
-        <v>73671.0</v>
+        <v>73810.0</v>
       </c>
       <c r="C86" t="n" s="78">
-        <v>11.266591118676105</v>
+        <v>11.265933106518855</v>
       </c>
       <c r="D86" t="n" s="77">
-        <v>74143.0</v>
+        <v>74281.0</v>
       </c>
       <c r="E86" t="n" s="78">
-        <v>11.338774623827591</v>
+        <v>11.33782383261519</v>
       </c>
     </row>
     <row r="88">
@@ -12893,16 +12893,16 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="79">
-        <v>653889.0</v>
+        <v>655161.0</v>
       </c>
       <c r="C88" t="n" s="80">
-        <v>100.00000000000001</v>
+        <v>99.99999999999999</v>
       </c>
       <c r="D88" t="n" s="79">
-        <v>653889.0</v>
+        <v>655161.0</v>
       </c>
       <c r="E88" t="n" s="80">
-        <v>100.00000000000001</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
   </sheetData>
